--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1999015.953143108</v>
+        <v>-2001869.81416713</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.2213204033356</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>128.2377354064896</v>
+        <v>128.2377354064898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.87281545754661</v>
+        <v>15.87281545754701</v>
       </c>
       <c r="S2" t="n">
-        <v>160.4109796955705</v>
+        <v>160.4109796955706</v>
       </c>
       <c r="T2" t="n">
-        <v>213.7579980667565</v>
+        <v>213.7579980667566</v>
       </c>
       <c r="U2" t="n">
-        <v>159.1277286190296</v>
+        <v>251.1750011386098</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>49.98634323142196</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.09252783452763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.20218283636</v>
       </c>
       <c r="H3" t="n">
-        <v>101.2125574482281</v>
+        <v>101.2125574482282</v>
       </c>
       <c r="I3" t="n">
-        <v>50.10069221203889</v>
+        <v>50.10069221203901</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.29498884168652</v>
+        <v>29.29498884168673</v>
       </c>
       <c r="S3" t="n">
         <v>150.4833865678177</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.7198496000514</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>126.675194582023</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.7094354839959</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.038371165852979</v>
+        <v>6.038371165853221</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.2696499661859</v>
       </c>
       <c r="S4" t="n">
-        <v>207.3412012951898</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3286684148370488</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>160.6407372330435</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>173.1007389215557</v>
+        <v>13.169590399801</v>
       </c>
       <c r="H5" t="n">
-        <v>317.6287092208522</v>
+        <v>317.6287092208523</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>128.2377354064898</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.87281545754701</v>
       </c>
       <c r="S5" t="n">
-        <v>160.4109796955705</v>
+        <v>78.68927313671746</v>
       </c>
       <c r="T5" t="n">
-        <v>213.7579980667565</v>
+        <v>213.7579980667566</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1750011386098</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.20218283636</v>
       </c>
       <c r="H6" t="n">
-        <v>101.2125574482281</v>
+        <v>101.2125574482282</v>
       </c>
       <c r="I6" t="n">
-        <v>50.10069221203889</v>
+        <v>50.10069221203901</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.29498884168652</v>
+        <v>29.29498884168673</v>
       </c>
       <c r="S6" t="n">
         <v>150.4833865678177</v>
@@ -1057,16 +1057,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>64.48979457974565</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>39.62283208765687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0341229987321</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.038371165852979</v>
+        <v>6.038371165853221</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.8572031639947</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>56.99697881668522</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>119.7912694975114</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>89.18712574264056</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>47.74737665184078</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>120.4424239494342</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>113.0992099793431</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>33.45472478220952</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.2707447515123</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.445727774094098</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652662</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2843,13 +2843,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352489</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>958.2045918138142</v>
+        <v>1228.720925706401</v>
       </c>
       <c r="C2" t="n">
-        <v>958.2045918138142</v>
+        <v>859.7584087659889</v>
       </c>
       <c r="D2" t="n">
-        <v>599.9388932070638</v>
+        <v>859.7584087659889</v>
       </c>
       <c r="E2" t="n">
-        <v>599.9388932070638</v>
+        <v>599.938893207064</v>
       </c>
       <c r="F2" t="n">
-        <v>599.9388932070638</v>
+        <v>599.938893207064</v>
       </c>
       <c r="G2" t="n">
-        <v>182.5958726012041</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="H2" t="n">
-        <v>182.5958726012041</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="I2" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J2" t="n">
-        <v>53.06507408290673</v>
+        <v>220.4707231032592</v>
       </c>
       <c r="K2" t="n">
-        <v>424.7109492422821</v>
+        <v>271.2126398171807</v>
       </c>
       <c r="L2" t="n">
-        <v>811.1802293493662</v>
+        <v>743.1540106415854</v>
       </c>
       <c r="M2" t="n">
-        <v>953.9538071856136</v>
+        <v>1330.945986635736</v>
       </c>
       <c r="N2" t="n">
-        <v>1536.624874323129</v>
+        <v>1913.61705377325</v>
       </c>
       <c r="O2" t="n">
-        <v>2041.637002584231</v>
+        <v>2041.637002584233</v>
       </c>
       <c r="P2" t="n">
-        <v>2434.978787279024</v>
+        <v>2434.978787279026</v>
       </c>
       <c r="Q2" t="n">
         <v>2653.140326702146</v>
@@ -4361,19 +4361,19 @@
         <v>2259.158717389142</v>
       </c>
       <c r="U2" t="n">
-        <v>2098.42363797598</v>
+        <v>2005.44659502691</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.36075063241</v>
+        <v>1954.955339237594</v>
       </c>
       <c r="W2" t="n">
-        <v>1414.592095362296</v>
+        <v>1602.18668396748</v>
       </c>
       <c r="X2" t="n">
-        <v>1041.126337101216</v>
+        <v>1228.720925706401</v>
       </c>
       <c r="Y2" t="n">
-        <v>958.2045918138142</v>
+        <v>1228.720925706401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>972.6418872394629</v>
+        <v>972.6418872394634</v>
       </c>
       <c r="C3" t="n">
-        <v>798.1888579583359</v>
+        <v>798.1888579583364</v>
       </c>
       <c r="D3" t="n">
-        <v>649.2544482970845</v>
+        <v>649.254448297085</v>
       </c>
       <c r="E3" t="n">
-        <v>490.016993291629</v>
+        <v>490.0169932916294</v>
       </c>
       <c r="F3" t="n">
-        <v>343.4824353185141</v>
+        <v>343.4824353185146</v>
       </c>
       <c r="G3" t="n">
-        <v>205.9044728575449</v>
+        <v>205.9044728575451</v>
       </c>
       <c r="H3" t="n">
-        <v>103.6695663441832</v>
+        <v>103.6695663441833</v>
       </c>
       <c r="I3" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J3" t="n">
-        <v>53.06280653404291</v>
+        <v>159.0764351006237</v>
       </c>
       <c r="K3" t="n">
-        <v>360.8778264714617</v>
+        <v>466.8914550380419</v>
       </c>
       <c r="L3" t="n">
-        <v>836.1775037969821</v>
+        <v>942.1911323635616</v>
       </c>
       <c r="M3" t="n">
-        <v>1442.809030438709</v>
+        <v>1275.042583204535</v>
       </c>
       <c r="N3" t="n">
-        <v>2081.203301889655</v>
+        <v>1913.43685465548</v>
       </c>
       <c r="O3" t="n">
-        <v>2208.86996548782</v>
+        <v>2041.103518253644</v>
       </c>
       <c r="P3" t="n">
-        <v>2607.278793027488</v>
+        <v>2439.512345793311</v>
       </c>
       <c r="Q3" t="n">
         <v>2653.140326702146</v>
       </c>
       <c r="R3" t="n">
-        <v>2623.54942888226</v>
+        <v>2623.549428882261</v>
       </c>
       <c r="S3" t="n">
         <v>2471.546008106687</v>
       </c>
       <c r="T3" t="n">
-        <v>2274.00626020644</v>
+        <v>2274.006260206441</v>
       </c>
       <c r="U3" t="n">
         <v>2045.858488189962</v>
       </c>
       <c r="V3" t="n">
-        <v>1810.706379958219</v>
+        <v>1810.70637995822</v>
       </c>
       <c r="W3" t="n">
         <v>1556.469023230018</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.0055763721959</v>
+        <v>362.2592506411846</v>
       </c>
       <c r="C4" t="n">
-        <v>350.069393444289</v>
+        <v>362.2592506411846</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9527540319533</v>
+        <v>362.2592506411846</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9527540319533</v>
+        <v>362.2592506411846</v>
       </c>
       <c r="F4" t="n">
-        <v>53.06280653404291</v>
+        <v>362.2592506411846</v>
       </c>
       <c r="G4" t="n">
-        <v>53.06280653404291</v>
+        <v>362.2592506411846</v>
       </c>
       <c r="H4" t="n">
-        <v>53.06280653404291</v>
+        <v>206.9866752875973</v>
       </c>
       <c r="I4" t="n">
-        <v>53.06280653404291</v>
+        <v>79.03193328555393</v>
       </c>
       <c r="J4" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K4" t="n">
-        <v>141.0736281221829</v>
+        <v>141.0736281221826</v>
       </c>
       <c r="L4" t="n">
-        <v>309.2236132926287</v>
+        <v>309.223613292628</v>
       </c>
       <c r="M4" t="n">
-        <v>496.9033193817569</v>
+        <v>496.9033193817558</v>
       </c>
       <c r="N4" t="n">
-        <v>685.5550379667079</v>
+        <v>685.5550379667063</v>
       </c>
       <c r="O4" t="n">
-        <v>843.7891387308827</v>
+        <v>843.7891387308806</v>
       </c>
       <c r="P4" t="n">
-        <v>955.6650654913623</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="Q4" t="n">
-        <v>949.5657006773694</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="R4" t="n">
-        <v>949.5657006773694</v>
+        <v>813.9397916206134</v>
       </c>
       <c r="S4" t="n">
-        <v>740.1301438135413</v>
+        <v>813.9397916206134</v>
       </c>
       <c r="T4" t="n">
-        <v>740.1301438135413</v>
+        <v>813.9397916206134</v>
       </c>
       <c r="U4" t="n">
-        <v>739.7981555157261</v>
+        <v>813.9397916206134</v>
       </c>
       <c r="V4" t="n">
-        <v>739.7981555157261</v>
+        <v>813.9397916206134</v>
       </c>
       <c r="W4" t="n">
-        <v>739.7981555157261</v>
+        <v>524.5226215836528</v>
       </c>
       <c r="X4" t="n">
-        <v>739.7981555157261</v>
+        <v>362.2592506411846</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.0055763721959</v>
+        <v>362.2592506411846</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.71108668361</v>
+        <v>1267.735021141921</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.748569743199</v>
+        <v>1267.735021141921</v>
       </c>
       <c r="D5" t="n">
-        <v>941.4828711364482</v>
+        <v>909.4693225351705</v>
       </c>
       <c r="E5" t="n">
-        <v>555.6946185382039</v>
+        <v>523.6810699369263</v>
       </c>
       <c r="F5" t="n">
-        <v>548.7491177890005</v>
+        <v>516.7355691877228</v>
       </c>
       <c r="G5" t="n">
-        <v>373.8998865551058</v>
+        <v>503.4329526222673</v>
       </c>
       <c r="H5" t="n">
-        <v>53.06280653404291</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="I5" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J5" t="n">
-        <v>220.4707231032598</v>
+        <v>53.0650740829062</v>
       </c>
       <c r="K5" t="n">
-        <v>592.1165982626352</v>
+        <v>424.7109492422808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.9681947113966</v>
+        <v>938.047148095987</v>
       </c>
       <c r="M5" t="n">
-        <v>1279.760170705548</v>
+        <v>1525.839124090137</v>
       </c>
       <c r="N5" t="n">
-        <v>1746.816715076434</v>
+        <v>2108.510191227651</v>
       </c>
       <c r="O5" t="n">
-        <v>2251.828843337536</v>
+        <v>2570.409564427306</v>
       </c>
       <c r="P5" t="n">
-        <v>2645.17062803233</v>
+        <v>2645.170628032331</v>
       </c>
       <c r="Q5" t="n">
         <v>2653.140326702146</v>
       </c>
       <c r="R5" t="n">
-        <v>2653.140326702146</v>
+        <v>2637.107179775331</v>
       </c>
       <c r="S5" t="n">
-        <v>2491.109034080357</v>
+        <v>2557.623065495818</v>
       </c>
       <c r="T5" t="n">
-        <v>2275.191864315957</v>
+        <v>2341.705895731418</v>
       </c>
       <c r="U5" t="n">
-        <v>2021.479741953724</v>
+        <v>2341.705895731418</v>
       </c>
       <c r="V5" t="n">
-        <v>2021.479741953724</v>
+        <v>2010.643008387847</v>
       </c>
       <c r="W5" t="n">
-        <v>1668.71108668361</v>
+        <v>1657.874353117733</v>
       </c>
       <c r="X5" t="n">
-        <v>1668.71108668361</v>
+        <v>1657.874353117733</v>
       </c>
       <c r="Y5" t="n">
-        <v>1668.71108668361</v>
+        <v>1267.735021141921</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>972.6418872394635</v>
+        <v>972.6418872394637</v>
       </c>
       <c r="C6" t="n">
-        <v>798.1888579583365</v>
+        <v>798.1888579583367</v>
       </c>
       <c r="D6" t="n">
-        <v>649.2544482970852</v>
+        <v>649.2544482970854</v>
       </c>
       <c r="E6" t="n">
-        <v>490.0169932916297</v>
+        <v>490.0169932916299</v>
       </c>
       <c r="F6" t="n">
-        <v>343.4824353185146</v>
+        <v>343.4824353185148</v>
       </c>
       <c r="G6" t="n">
-        <v>205.904472857545</v>
+        <v>205.9044728575452</v>
       </c>
       <c r="H6" t="n">
-        <v>103.6695663441832</v>
+        <v>103.6695663441834</v>
       </c>
       <c r="I6" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J6" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K6" t="n">
-        <v>118.4658241068605</v>
+        <v>360.8778264714612</v>
       </c>
       <c r="L6" t="n">
-        <v>593.7655014323809</v>
+        <v>836.1775037969809</v>
       </c>
       <c r="M6" t="n">
-        <v>1200.397028074107</v>
+        <v>1442.809030438706</v>
       </c>
       <c r="N6" t="n">
-        <v>1838.791299525053</v>
+        <v>1731.489673430008</v>
       </c>
       <c r="O6" t="n">
-        <v>2356.381659207181</v>
+        <v>2249.080033112135</v>
       </c>
       <c r="P6" t="n">
-        <v>2439.512345793311</v>
+        <v>2647.488860651802</v>
       </c>
       <c r="Q6" t="n">
         <v>2653.140326702146</v>
@@ -4677,7 +4677,7 @@
         <v>2274.006260206441</v>
       </c>
       <c r="U6" t="n">
-        <v>2045.858488189962</v>
+        <v>2045.858488189963</v>
       </c>
       <c r="V6" t="n">
         <v>1810.70637995822</v>
@@ -4686,10 +4686,10 @@
         <v>1556.469023230018</v>
       </c>
       <c r="X6" t="n">
-        <v>1348.617523024485</v>
+        <v>1348.617523024486</v>
       </c>
       <c r="Y6" t="n">
-        <v>1140.857224259531</v>
+        <v>1140.857224259532</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.7731215338392</v>
+        <v>434.030143606068</v>
       </c>
       <c r="C7" t="n">
-        <v>559.8369386059323</v>
+        <v>265.093960678161</v>
       </c>
       <c r="D7" t="n">
-        <v>409.7202991935966</v>
+        <v>199.9527540319533</v>
       </c>
       <c r="E7" t="n">
-        <v>261.8072056112035</v>
+        <v>199.9527540319533</v>
       </c>
       <c r="F7" t="n">
-        <v>221.7841428963985</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="G7" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="H7" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="I7" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J7" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K7" t="n">
-        <v>141.0736281221829</v>
+        <v>141.0736281221826</v>
       </c>
       <c r="L7" t="n">
-        <v>309.2236132926287</v>
+        <v>309.223613292628</v>
       </c>
       <c r="M7" t="n">
-        <v>496.9033193817569</v>
+        <v>496.9033193817558</v>
       </c>
       <c r="N7" t="n">
-        <v>685.5550379667079</v>
+        <v>685.5550379667063</v>
       </c>
       <c r="O7" t="n">
-        <v>843.7891387308827</v>
+        <v>843.7891387308806</v>
       </c>
       <c r="P7" t="n">
-        <v>955.6650654913623</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="Q7" t="n">
-        <v>949.5657006773694</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="R7" t="n">
-        <v>949.5657006773694</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="S7" t="n">
-        <v>949.5657006773694</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="T7" t="n">
-        <v>949.5657006773694</v>
+        <v>723.4473136430286</v>
       </c>
       <c r="U7" t="n">
-        <v>949.5657006773694</v>
+        <v>723.4473136430286</v>
       </c>
       <c r="V7" t="n">
-        <v>949.5657006773694</v>
+        <v>723.4473136430286</v>
       </c>
       <c r="W7" t="n">
-        <v>949.5657006773694</v>
+        <v>434.030143606068</v>
       </c>
       <c r="X7" t="n">
-        <v>949.5657006773694</v>
+        <v>434.030143606068</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.7731215338392</v>
+        <v>434.030143606068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1323.905078607185</v>
+        <v>1342.151322572532</v>
       </c>
       <c r="C8" t="n">
-        <v>1323.905078607185</v>
+        <v>1342.151322572532</v>
       </c>
       <c r="D8" t="n">
-        <v>965.6393800004348</v>
+        <v>983.8856239657819</v>
       </c>
       <c r="E8" t="n">
-        <v>965.6393800004348</v>
+        <v>598.0973713675376</v>
       </c>
       <c r="F8" t="n">
-        <v>908.0666741249952</v>
+        <v>187.11146657793</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9788923614226</v>
+        <v>174.0640888547615</v>
       </c>
       <c r="H8" t="n">
-        <v>172.7557771339321</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="I8" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J8" t="n">
-        <v>74.29705652742621</v>
+        <v>241.7027055477793</v>
       </c>
       <c r="K8" t="n">
-        <v>156.8602111020186</v>
+        <v>645.1698185678247</v>
       </c>
       <c r="L8" t="n">
-        <v>709.6734693482178</v>
+        <v>784.4984744090779</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.39128033153</v>
+        <v>1237.153901928891</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.698948391376</v>
+        <v>1431.488114820873</v>
       </c>
       <c r="O8" t="n">
-        <v>2507.421881431024</v>
+        <v>1978.649319587951</v>
       </c>
       <c r="P8" t="n">
-        <v>2618.15620668055</v>
+        <v>2407.964365927245</v>
       </c>
       <c r="Q8" t="n">
         <v>2653.140326702146</v>
@@ -4829,25 +4829,25 @@
         <v>2653.140326702146</v>
       </c>
       <c r="S8" t="n">
-        <v>2496.925289198974</v>
+        <v>2653.140326702146</v>
       </c>
       <c r="T8" t="n">
-        <v>2282.125427466685</v>
+        <v>2653.140326702146</v>
       </c>
       <c r="U8" t="n">
-        <v>2028.433724211836</v>
+        <v>2399.448623447297</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.370836868265</v>
+        <v>2068.385736103726</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.370836868265</v>
+        <v>1715.617080833612</v>
       </c>
       <c r="X8" t="n">
-        <v>1323.905078607185</v>
+        <v>1342.151322572532</v>
       </c>
       <c r="Y8" t="n">
-        <v>1323.905078607185</v>
+        <v>1342.151322572532</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>199.8836413989218</v>
       </c>
       <c r="H9" t="n">
-        <v>98.96766354372642</v>
+        <v>98.96766354372643</v>
       </c>
       <c r="I9" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J9" t="n">
         <v>171.7220583909386</v>
       </c>
       <c r="K9" t="n">
-        <v>239.3298780542956</v>
+        <v>501.1504626967484</v>
       </c>
       <c r="L9" t="n">
-        <v>743.6914179204141</v>
+        <v>1005.512002562867</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.63388902838</v>
+        <v>1547.912029981918</v>
       </c>
       <c r="N9" t="n">
-        <v>1431.290630681045</v>
+        <v>1746.568771634583</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.726639433768</v>
+        <v>2296.004780387306</v>
       </c>
       <c r="P9" t="n">
         <v>2404.694407914605</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.8735772213124</v>
+        <v>624.7646241022629</v>
       </c>
       <c r="C10" t="n">
-        <v>70.93739429340553</v>
+        <v>455.828441174356</v>
       </c>
       <c r="D10" t="n">
-        <v>70.93739429340553</v>
+        <v>455.828441174356</v>
       </c>
       <c r="E10" t="n">
-        <v>70.93739429340553</v>
+        <v>307.9153475919629</v>
       </c>
       <c r="F10" t="n">
-        <v>70.93739429340553</v>
+        <v>161.0254000940526</v>
       </c>
       <c r="G10" t="n">
         <v>70.93739429340553</v>
@@ -4960,7 +4960,7 @@
         <v>70.93739429340553</v>
       </c>
       <c r="J10" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K10" t="n">
         <v>154.1107361296527</v>
@@ -4987,25 +4987,25 @@
         <v>1052.997487993388</v>
       </c>
       <c r="S10" t="n">
-        <v>1004.76781460769</v>
+        <v>845.5572032457931</v>
       </c>
       <c r="T10" t="n">
-        <v>1004.76781460769</v>
+        <v>845.5572032457931</v>
       </c>
       <c r="U10" t="n">
-        <v>1004.76781460769</v>
+        <v>845.5572032457931</v>
       </c>
       <c r="V10" t="n">
-        <v>750.0833264018031</v>
+        <v>845.5572032457931</v>
       </c>
       <c r="W10" t="n">
-        <v>460.6661563648425</v>
+        <v>845.5572032457931</v>
       </c>
       <c r="X10" t="n">
-        <v>460.6661563648425</v>
+        <v>845.5572032457931</v>
       </c>
       <c r="Y10" t="n">
-        <v>239.8735772213124</v>
+        <v>624.7646241022629</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>382.6717764234295</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>215.4756771383094</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1319.459739407057</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5467179762944</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6105350483875</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>665.4938956360518</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806534</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2194.592113392523</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1905.516886736721</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.832398530834</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1361.415228493873</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.425677595856</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6136,7 +6136,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6227,25 +6227,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345484</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384028</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,10 +6652,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6786,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6950,10 +6950,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954147</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,13 +7193,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,10 +7360,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,37 +7628,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7813,31 +7813,31 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>289.5128117760835</v>
+        <v>375.8482569450953</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>19.00656204083199</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>189.1595326381289</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.61622992354896</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>320.5645781830657</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>337.2519438269411</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>19.00656204083199</v>
+        <v>19.00656204083232</v>
       </c>
       <c r="K6" t="n">
-        <v>19.60462856348649</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>126.0962849903785</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>268.642439085258</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>372.2766744673618</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.5708431852135</v>
+        <v>366.568374812572</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.7090496689262</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>317.6287092208522</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.145410821526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0341229987321</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.3412012951899</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.8572031639947</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>65.06891815599363</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>19.8522888967897</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238293</v>
       </c>
       <c r="W13" t="n">
-        <v>173.4237883572479</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>112.9792378643596</v>
+        <v>80.9846548059234</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>30.15030327141895</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>214.9597225531942</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1337281.385173621</v>
+        <v>1337281.385173622</v>
       </c>
     </row>
     <row r="7">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287322</v>
+        <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900057</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="F2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="O2" t="n">
         <v>82104.1769864284</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>733594.7488743899</v>
+        <v>733594.7488743884</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53830.54890403766</v>
+        <v>53830.54890403902</v>
       </c>
       <c r="E3" t="n">
-        <v>774337.7035887978</v>
+        <v>774337.7035887977</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96029.79373198241</v>
+        <v>96029.79373198267</v>
       </c>
       <c r="C4" t="n">
-        <v>194101.0169589089</v>
+        <v>194101.0169589092</v>
       </c>
       <c r="D4" t="n">
         <v>183480.4543593025</v>
@@ -26427,37 +26427,37 @@
         <v>6287.48053169506</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695082</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695082</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695075</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.48053169506</v>
-      </c>
       <c r="J4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478855</v>
+        <v>14278.3397947885</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478853</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478855</v>
       </c>
       <c r="O4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85522.85648555038</v>
+        <v>85522.85648555035</v>
       </c>
       <c r="C5" t="n">
-        <v>85522.85648555038</v>
+        <v>85522.85648555035</v>
       </c>
       <c r="D5" t="n">
-        <v>86893.11195324242</v>
+        <v>86893.11195324243</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850225.5767690494</v>
+        <v>-850655.135635637</v>
       </c>
       <c r="C6" t="n">
-        <v>-197519.696458031</v>
+        <v>-197519.6964580312</v>
       </c>
       <c r="D6" t="n">
-        <v>-242099.9382301543</v>
+        <v>-242099.9382301556</v>
       </c>
       <c r="E6" t="n">
-        <v>-801033.0539753994</v>
+        <v>-801067.7919008349</v>
       </c>
       <c r="F6" t="n">
-        <v>-26695.35038660157</v>
+        <v>-26730.08831203725</v>
       </c>
       <c r="G6" t="n">
-        <v>-26695.35038660154</v>
+        <v>-26730.08831203727</v>
       </c>
       <c r="H6" t="n">
-        <v>-26695.35038660164</v>
+        <v>-26730.08831203729</v>
       </c>
       <c r="I6" t="n">
-        <v>-26695.35038660157</v>
+        <v>-26730.08831203725</v>
       </c>
       <c r="J6" t="n">
         <v>-228310.5585658214</v>
       </c>
       <c r="K6" t="n">
-        <v>-35338.27866227555</v>
+        <v>-35338.27866227551</v>
       </c>
       <c r="L6" t="n">
-        <v>-35338.27866227555</v>
+        <v>-35338.27866227558</v>
       </c>
       <c r="M6" t="n">
-        <v>-162288.57939599</v>
+        <v>-162288.5793959899</v>
       </c>
       <c r="N6" t="n">
-        <v>-35338.27866227558</v>
+        <v>-35338.27866227557</v>
       </c>
       <c r="O6" t="n">
-        <v>-54765.99665590732</v>
+        <v>-54765.99665590726</v>
       </c>
       <c r="P6" t="n">
-        <v>-35338.27866227557</v>
+        <v>-35338.27866227554</v>
       </c>
     </row>
   </sheetData>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.6203449393471</v>
+        <v>530.6203449393455</v>
       </c>
       <c r="C3" t="n">
-        <v>530.6203449393471</v>
+        <v>530.6203449393455</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="C4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="D4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.6203449393471</v>
+        <v>530.6203449393455</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.85575539871797</v>
+        <v>62.85575539871957</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>509.4232064241121</v>
+        <v>509.4232064241119</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.2850816755365</v>
+        <v>663.2850816755366</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>509.423206424112</v>
+        <v>509.4232064241119</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>509.4232064241121</v>
+        <v>509.4232064241119</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.6287092208523</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>92.04727251958019</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>277.7659152387129</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0341229987321</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.7198496000514</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6751945820229</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.7094354839957</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.2696499661857</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8572031639947</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>285.9381687765778</v>
+        <v>286.2668371914149</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>240.0688514782453</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>128.2377354064896</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.87281545754661</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>81.72170655885314</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1750011386098</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>84.12567843846671</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>105.7982159352744</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0341229987321</v>
       </c>
       <c r="H7" t="n">
         <v>153.7198496000514</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6751945820229</v>
+        <v>126.675194582023</v>
       </c>
       <c r="J7" t="n">
-        <v>25.7094354839957</v>
+        <v>25.7094354839959</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>134.2696499661857</v>
+        <v>134.2696499661859</v>
       </c>
       <c r="S7" t="n">
-        <v>207.3412012951898</v>
+        <v>207.3412012951899</v>
       </c>
       <c r="T7" t="n">
-        <v>223.8572031639947</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2668371914149</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>349.8790669250262</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>195.2496145777042</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>77.73365081192988</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6185052482779</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,10 +28068,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,10 +28093,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.133147115334057</v>
+        <v>2.13314711533405</v>
       </c>
       <c r="H2" t="n">
-        <v>21.84609289491492</v>
+        <v>21.84609289491485</v>
       </c>
       <c r="I2" t="n">
-        <v>82.23815416391632</v>
+        <v>82.23815416391606</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0481949800841</v>
+        <v>181.0481949800835</v>
       </c>
       <c r="K2" t="n">
-        <v>271.3443123721748</v>
+        <v>271.344312372174</v>
       </c>
       <c r="L2" t="n">
-        <v>336.6266134030795</v>
+        <v>336.6266134030785</v>
       </c>
       <c r="M2" t="n">
-        <v>374.5619684154015</v>
+        <v>374.5619684154004</v>
       </c>
       <c r="N2" t="n">
-        <v>380.6227726568445</v>
+        <v>380.6227726568433</v>
       </c>
       <c r="O2" t="n">
-        <v>359.4112910287414</v>
+        <v>359.4112910287403</v>
       </c>
       <c r="P2" t="n">
-        <v>306.7492216189318</v>
+        <v>306.7492216189309</v>
       </c>
       <c r="Q2" t="n">
-        <v>230.3558905510308</v>
+        <v>230.3558905510301</v>
       </c>
       <c r="R2" t="n">
-        <v>133.9963024836031</v>
+        <v>133.9963024836027</v>
       </c>
       <c r="S2" t="n">
-        <v>48.60908989067487</v>
+        <v>48.60908989067473</v>
       </c>
       <c r="T2" t="n">
-        <v>9.337851497374839</v>
+        <v>9.337851497374812</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1706517692267245</v>
+        <v>0.170651769226724</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.141334326850671</v>
+        <v>1.141334326850668</v>
       </c>
       <c r="H3" t="n">
-        <v>11.02288678826833</v>
+        <v>11.02288678826829</v>
       </c>
       <c r="I3" t="n">
-        <v>39.29594063937618</v>
+        <v>39.29594063937606</v>
       </c>
       <c r="J3" t="n">
-        <v>107.8310646258347</v>
+        <v>107.8310646258344</v>
       </c>
       <c r="K3" t="n">
-        <v>184.3004645248297</v>
+        <v>184.3004645248291</v>
       </c>
       <c r="L3" t="n">
-        <v>247.8147186436074</v>
+        <v>247.8147186436066</v>
       </c>
       <c r="M3" t="n">
-        <v>289.1880879919441</v>
+        <v>289.1880879919432</v>
       </c>
       <c r="N3" t="n">
-        <v>296.8420361750787</v>
+        <v>296.8420361750779</v>
       </c>
       <c r="O3" t="n">
-        <v>271.552470301177</v>
+        <v>271.5524703011762</v>
       </c>
       <c r="P3" t="n">
-        <v>217.9447979053707</v>
+        <v>217.9447979053701</v>
       </c>
       <c r="Q3" t="n">
-        <v>145.690325652026</v>
+        <v>145.6903256520256</v>
       </c>
       <c r="R3" t="n">
-        <v>70.86284531095662</v>
+        <v>70.8628453109564</v>
       </c>
       <c r="S3" t="n">
-        <v>21.19978453602013</v>
+        <v>21.19978453602006</v>
       </c>
       <c r="T3" t="n">
-        <v>4.600378273577923</v>
+        <v>4.600378273577909</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0750877846612284</v>
+        <v>0.07508778466122817</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9568563597266914</v>
+        <v>0.9568563597266885</v>
       </c>
       <c r="H4" t="n">
-        <v>8.507322907388225</v>
+        <v>8.5073229073882</v>
       </c>
       <c r="I4" t="n">
-        <v>28.77528034523542</v>
+        <v>28.77528034523533</v>
       </c>
       <c r="J4" t="n">
-        <v>67.64974463267707</v>
+        <v>67.64974463267687</v>
       </c>
       <c r="K4" t="n">
-        <v>111.1693116118828</v>
+        <v>111.1693116118825</v>
       </c>
       <c r="L4" t="n">
-        <v>142.258444608821</v>
+        <v>142.2584446088206</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9915837342485</v>
+        <v>149.9915837342481</v>
       </c>
       <c r="N4" t="n">
-        <v>146.4251191207219</v>
+        <v>146.4251191207214</v>
       </c>
       <c r="O4" t="n">
-        <v>135.2472971002782</v>
+        <v>135.2472971002778</v>
       </c>
       <c r="P4" t="n">
-        <v>115.7274273618536</v>
+        <v>115.7274273618533</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.12367208584141</v>
+        <v>80.12367208584116</v>
       </c>
       <c r="R4" t="n">
-        <v>43.02374141098377</v>
+        <v>43.02374141098364</v>
       </c>
       <c r="S4" t="n">
-        <v>16.67539674178242</v>
+        <v>16.67539674178238</v>
       </c>
       <c r="T4" t="n">
-        <v>4.088386264286771</v>
+        <v>4.088386264286759</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05219216507600141</v>
+        <v>0.05219216507600125</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.133147115334057</v>
+        <v>2.13314711533405</v>
       </c>
       <c r="H5" t="n">
-        <v>21.84609289491492</v>
+        <v>21.84609289491485</v>
       </c>
       <c r="I5" t="n">
-        <v>82.23815416391632</v>
+        <v>82.23815416391606</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0481949800841</v>
+        <v>181.0481949800835</v>
       </c>
       <c r="K5" t="n">
-        <v>271.3443123721748</v>
+        <v>271.344312372174</v>
       </c>
       <c r="L5" t="n">
-        <v>336.6266134030795</v>
+        <v>336.6266134030785</v>
       </c>
       <c r="M5" t="n">
-        <v>374.5619684154015</v>
+        <v>374.5619684154004</v>
       </c>
       <c r="N5" t="n">
-        <v>380.6227726568445</v>
+        <v>380.6227726568433</v>
       </c>
       <c r="O5" t="n">
-        <v>359.4112910287414</v>
+        <v>359.4112910287403</v>
       </c>
       <c r="P5" t="n">
-        <v>306.7492216189318</v>
+        <v>306.7492216189309</v>
       </c>
       <c r="Q5" t="n">
-        <v>230.3558905510308</v>
+        <v>230.3558905510301</v>
       </c>
       <c r="R5" t="n">
-        <v>133.9963024836031</v>
+        <v>133.9963024836027</v>
       </c>
       <c r="S5" t="n">
-        <v>48.60908989067487</v>
+        <v>48.60908989067473</v>
       </c>
       <c r="T5" t="n">
-        <v>9.337851497374839</v>
+        <v>9.337851497374812</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1706517692267245</v>
+        <v>0.170651769226724</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.141334326850671</v>
+        <v>1.141334326850668</v>
       </c>
       <c r="H6" t="n">
-        <v>11.02288678826833</v>
+        <v>11.02288678826829</v>
       </c>
       <c r="I6" t="n">
-        <v>39.29594063937618</v>
+        <v>39.29594063937606</v>
       </c>
       <c r="J6" t="n">
-        <v>107.8310646258347</v>
+        <v>107.8310646258344</v>
       </c>
       <c r="K6" t="n">
-        <v>184.3004645248297</v>
+        <v>184.3004645248291</v>
       </c>
       <c r="L6" t="n">
-        <v>247.8147186436074</v>
+        <v>247.8147186436066</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1880879919441</v>
+        <v>289.1880879919432</v>
       </c>
       <c r="N6" t="n">
-        <v>296.8420361750787</v>
+        <v>296.8420361750779</v>
       </c>
       <c r="O6" t="n">
-        <v>271.552470301177</v>
+        <v>271.5524703011762</v>
       </c>
       <c r="P6" t="n">
-        <v>217.9447979053707</v>
+        <v>217.9447979053701</v>
       </c>
       <c r="Q6" t="n">
-        <v>145.690325652026</v>
+        <v>145.6903256520256</v>
       </c>
       <c r="R6" t="n">
-        <v>70.86284531095662</v>
+        <v>70.8628453109564</v>
       </c>
       <c r="S6" t="n">
-        <v>21.19978453602013</v>
+        <v>21.19978453602006</v>
       </c>
       <c r="T6" t="n">
-        <v>4.600378273577923</v>
+        <v>4.600378273577909</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0750877846612284</v>
+        <v>0.07508778466122817</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9568563597266914</v>
+        <v>0.9568563597266885</v>
       </c>
       <c r="H7" t="n">
-        <v>8.507322907388225</v>
+        <v>8.5073229073882</v>
       </c>
       <c r="I7" t="n">
-        <v>28.77528034523542</v>
+        <v>28.77528034523533</v>
       </c>
       <c r="J7" t="n">
-        <v>67.64974463267707</v>
+        <v>67.64974463267687</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1693116118828</v>
+        <v>111.1693116118825</v>
       </c>
       <c r="L7" t="n">
-        <v>142.258444608821</v>
+        <v>142.2584446088206</v>
       </c>
       <c r="M7" t="n">
-        <v>149.9915837342485</v>
+        <v>149.9915837342481</v>
       </c>
       <c r="N7" t="n">
-        <v>146.4251191207219</v>
+        <v>146.4251191207214</v>
       </c>
       <c r="O7" t="n">
-        <v>135.2472971002782</v>
+        <v>135.2472971002778</v>
       </c>
       <c r="P7" t="n">
-        <v>115.7274273618536</v>
+        <v>115.7274273618533</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.12367208584141</v>
+        <v>80.12367208584116</v>
       </c>
       <c r="R7" t="n">
-        <v>43.02374141098377</v>
+        <v>43.02374141098364</v>
       </c>
       <c r="S7" t="n">
-        <v>16.67539674178242</v>
+        <v>16.67539674178238</v>
       </c>
       <c r="T7" t="n">
-        <v>4.088386264286771</v>
+        <v>4.088386264286759</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05219216507600141</v>
+        <v>0.05219216507600125</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>491.1355220041058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32789,25 +32789,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00229045339779077</v>
+        <v>169.098905625471</v>
       </c>
       <c r="K2" t="n">
-        <v>375.399873898359</v>
+        <v>51.25446132719344</v>
       </c>
       <c r="L2" t="n">
-        <v>390.3730102091758</v>
+        <v>476.7084553781865</v>
       </c>
       <c r="M2" t="n">
-        <v>144.2157351881288</v>
+        <v>593.7292686809601</v>
       </c>
       <c r="N2" t="n">
-        <v>588.5566334722378</v>
+        <v>588.5566334722366</v>
       </c>
       <c r="O2" t="n">
-        <v>510.1132608698</v>
+        <v>129.3130796070536</v>
       </c>
       <c r="P2" t="n">
-        <v>397.3149340351449</v>
+        <v>397.314934035144</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.365191336486</v>
+        <v>220.3651913364853</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>107.0844732995765</v>
       </c>
       <c r="K3" t="n">
-        <v>310.9242625630493</v>
+        <v>310.9242625630487</v>
       </c>
       <c r="L3" t="n">
-        <v>480.1006841671924</v>
+        <v>480.1006841671916</v>
       </c>
       <c r="M3" t="n">
-        <v>612.7591178199257</v>
+        <v>336.2135867080538</v>
       </c>
       <c r="N3" t="n">
-        <v>644.8426984352989</v>
+        <v>644.8426984352981</v>
       </c>
       <c r="O3" t="n">
-        <v>128.9562258567325</v>
+        <v>128.9562258567317</v>
       </c>
       <c r="P3" t="n">
-        <v>402.4331591309776</v>
+        <v>402.4331591309769</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.32478148955349</v>
+        <v>215.7858393018532</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>88.89981978599999</v>
+        <v>88.89981978599965</v>
       </c>
       <c r="L4" t="n">
-        <v>169.8484698691372</v>
+        <v>169.8484698691367</v>
       </c>
       <c r="M4" t="n">
-        <v>189.5754606960891</v>
+        <v>189.5754606960887</v>
       </c>
       <c r="N4" t="n">
-        <v>190.5572914999505</v>
+        <v>190.55729149995</v>
       </c>
       <c r="O4" t="n">
-        <v>159.8324250143179</v>
+        <v>159.8324250143175</v>
       </c>
       <c r="P4" t="n">
-        <v>113.0059866267471</v>
+        <v>113.0059866267467</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0989056254716</v>
+        <v>0.002290453397250758</v>
       </c>
       <c r="K5" t="n">
-        <v>375.399873898359</v>
+        <v>375.3998738983582</v>
       </c>
       <c r="L5" t="n">
-        <v>100.8601984330923</v>
+        <v>518.5214129835417</v>
       </c>
       <c r="M5" t="n">
-        <v>593.7292686809612</v>
+        <v>593.7292686809601</v>
       </c>
       <c r="N5" t="n">
-        <v>471.7742872433192</v>
+        <v>588.5566334722366</v>
       </c>
       <c r="O5" t="n">
-        <v>510.1132608698</v>
+        <v>466.5650234339947</v>
       </c>
       <c r="P5" t="n">
-        <v>397.3149340351449</v>
+        <v>75.51622586366136</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.050200676581341</v>
+        <v>8.05020067658063</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>66.06365411395716</v>
+        <v>310.9242625630487</v>
       </c>
       <c r="L6" t="n">
-        <v>480.1006841671924</v>
+        <v>480.1006841671916</v>
       </c>
       <c r="M6" t="n">
-        <v>612.7591178199257</v>
+        <v>612.7591178199248</v>
       </c>
       <c r="N6" t="n">
-        <v>644.8426984352989</v>
+        <v>291.596609082123</v>
       </c>
       <c r="O6" t="n">
-        <v>522.8185451334621</v>
+        <v>522.8185451334613</v>
       </c>
       <c r="P6" t="n">
-        <v>83.97039049104046</v>
+        <v>402.4331591309769</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.7858393018536</v>
+        <v>5.708551566004076</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>88.89981978599999</v>
+        <v>88.89981978599965</v>
       </c>
       <c r="L7" t="n">
-        <v>169.8484698691372</v>
+        <v>169.8484698691367</v>
       </c>
       <c r="M7" t="n">
-        <v>189.5754606960891</v>
+        <v>189.5754606960887</v>
       </c>
       <c r="N7" t="n">
-        <v>190.5572914999505</v>
+        <v>190.55729149995</v>
       </c>
       <c r="O7" t="n">
-        <v>159.8324250143179</v>
+        <v>159.8324250143175</v>
       </c>
       <c r="P7" t="n">
-        <v>113.0059866267471</v>
+        <v>113.0059866267467</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>457.2277045654678</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>544.1645788279269</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>493.8812839474406</v>
+        <v>547.8788155747991</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35267,7 +35267,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
